--- a/doc/API-DOC.xlsx
+++ b/doc/API-DOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repos\api.lsp_exam\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07164D26-45F8-46C8-B5DF-682929A8DA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C414E73-076F-4593-B1E0-15091A5367EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{814B5134-A032-453D-87CB-102E785B3A66}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>method</t>
   </si>
@@ -490,19 +490,106 @@
     <t>username,password,date_client,time_client</t>
   </si>
   <si>
-    <t>username,password,coordinate,start_time</t>
-  </si>
-  <si>
     <t>username,password,question_id,answer_key</t>
   </si>
   <si>
-    <t>username,password,coordinate,finish_time</t>
-  </si>
-  <si>
     <t>username,password</t>
   </si>
   <si>
     <t>phone,fullname,card_no</t>
+  </si>
+  <si>
+    <t>username,password,coordinate,date_client,time_client</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>date_client</t>
+  </si>
+  <si>
+    <t>2019-11-05</t>
+  </si>
+  <si>
+    <t>14:13:00</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>time_client</t>
+  </si>
+  <si>
+    <t>HH:MM:SS</t>
+  </si>
+  <si>
+    <t>card_no</t>
+  </si>
+  <si>
+    <t>Numeric  (16 digits)</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Waktu</t>
+  </si>
+  <si>
+    <t>No KTP</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>DICTIONARY:</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>123ujian</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>lat=-6.368850&amp;long=106.877125</t>
+  </si>
+  <si>
+    <t>Latitude &amp; Longitude</t>
+  </si>
+  <si>
+    <t>89365209829</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>3174543661782930</t>
+  </si>
+  <si>
+    <t>Botak Kastelo</t>
   </si>
 </sst>
 </file>
@@ -570,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -580,6 +667,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,17 +983,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC9177D-30C2-4622-A65C-8F0109349E3D}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1173,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,47 +1181,170 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
